--- a/artfynd/A 30933-2023.xlsx
+++ b/artfynd/A 30933-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780813</v>
+        <v>111780818</v>
       </c>
       <c r="B2" t="n">
-        <v>56404</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100048</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780818</v>
+        <v>111780813</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>56404</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100048</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>

--- a/artfynd/A 30933-2023.xlsx
+++ b/artfynd/A 30933-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780818</v>
+        <v>111780813</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>56404</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>100048</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780813</v>
+        <v>111780818</v>
       </c>
       <c r="B3" t="n">
-        <v>56404</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100048</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>

--- a/artfynd/A 30933-2023.xlsx
+++ b/artfynd/A 30933-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780818</v>
+        <v>111780813</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>56404</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>100048</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>586623.7886384681</v>
+        <v>586624</v>
       </c>
       <c r="R2" t="n">
-        <v>6375427.824349802</v>
+        <v>6375428</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -765,19 +765,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,10 +794,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780813</v>
+        <v>111780818</v>
       </c>
       <c r="B3" t="n">
-        <v>56404</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,16 +810,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100048</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,14 +829,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -856,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>586623.7886384681</v>
+        <v>586624</v>
       </c>
       <c r="R3" t="n">
-        <v>6375427.824349802</v>
+        <v>6375428</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -889,19 +879,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
